--- a/foundPath/5000pathNodes.xlsx
+++ b/foundPath/5000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="24" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -70,7 +70,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -78,7 +78,7 @@
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
     <col min="2" max="2" width="5.140625" customWidth="true"/>
-    <col min="3" max="3" width="8.42578125" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
@@ -98,7 +98,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="B2" s="0">
         <v>630</v>
@@ -115,7 +115,7 @@
         <v>890</v>
       </c>
       <c r="B3" s="0">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="C3" s="0">
         <v>8</v>
@@ -126,184 +126,184 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>890</v>
+        <v>910</v>
       </c>
       <c r="B4" s="0">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="C4" s="0">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0">
-        <v>4.1269841269841274</v>
+        <v>4.681724069827605</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="B5" s="0">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="0">
-        <v>6.1959496442255064</v>
+        <v>5.5388231985385721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="B6" s="0">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="C6" s="0">
         <v>20</v>
       </c>
       <c r="D6" s="0">
-        <v>8.4181718664477287</v>
+        <v>6.0651389880122561</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="B7" s="0">
-        <v>750</v>
+        <v>730</v>
       </c>
       <c r="C7" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0">
-        <v>9.8467432950191576</v>
+        <v>8.3378662607395295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>890</v>
+        <v>930</v>
       </c>
       <c r="B8" s="0">
-        <v>780</v>
+        <v>830</v>
       </c>
       <c r="C8" s="0">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="D8" s="0">
-        <v>11.151091121106109</v>
+        <v>11.99236648660167</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>890</v>
+        <v>920</v>
       </c>
       <c r="B9" s="0">
-        <v>830</v>
+        <v>900</v>
       </c>
       <c r="C9" s="0">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D9" s="0">
-        <v>13.42381839383339</v>
+        <v>14.273356103332469</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="B10" s="0">
-        <v>860</v>
+        <v>980</v>
       </c>
       <c r="C10" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="0">
-        <v>14.887233027979731</v>
+        <v>18.194924730783448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>890</v>
+        <v>820</v>
       </c>
       <c r="B11" s="0">
-        <v>900</v>
+        <v>1040</v>
       </c>
       <c r="C11" s="0">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D11" s="0">
-        <v>16.705414846161549</v>
+        <v>21.13823189442752</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="B12" s="0">
-        <v>920</v>
+        <v>1040</v>
       </c>
       <c r="C12" s="0">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D12" s="0">
-        <v>17.556478675948782</v>
+        <v>21.47721494527498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>880</v>
+        <v>780</v>
       </c>
       <c r="B13" s="0">
-        <v>960</v>
+        <v>1010</v>
       </c>
       <c r="C13" s="0">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="D13" s="0">
-        <v>19.34913329578254</v>
+        <v>23.4505361950979</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>860</v>
+        <v>780</v>
       </c>
       <c r="B14" s="0">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="C14" s="0">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D14" s="0">
-        <v>20.951600529322089</v>
+        <v>24.164821909383619</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="B15" s="0">
-        <v>1010</v>
+        <v>990</v>
       </c>
       <c r="C15" s="0">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D15" s="0">
-        <v>23.133130263468232</v>
+        <v>24.789821909383619</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>810</v>
+        <v>780</v>
       </c>
       <c r="B16" s="0">
-        <v>990</v>
+        <v>980</v>
       </c>
       <c r="C16" s="0">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D16" s="0">
-        <v>24.279831790391199</v>
+        <v>25.345377464939169</v>
       </c>
     </row>
     <row r="17">
@@ -311,27 +311,27 @@
         <v>780</v>
       </c>
       <c r="B17" s="0">
-        <v>960</v>
+        <v>970</v>
       </c>
       <c r="C17" s="0">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D17" s="0">
-        <v>26.085210806186641</v>
+        <v>25.845377464939169</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="B18" s="0">
-        <v>910</v>
+        <v>880</v>
       </c>
       <c r="C18" s="0">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D18" s="0">
-        <v>28.239276729040441</v>
+        <v>29.640110657141229</v>
       </c>
     </row>
     <row r="19">
@@ -339,83 +339,83 @@
         <v>740</v>
       </c>
       <c r="B19" s="0">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C19" s="0">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D19" s="0">
-        <v>29.653218405692989</v>
+        <v>30.173776152376359</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="B20" s="0">
         <v>850</v>
       </c>
       <c r="C20" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D20" s="0">
-        <v>31.168447222521301</v>
+        <v>32.076812728971923</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>680</v>
+        <v>690</v>
       </c>
       <c r="B21" s="0">
         <v>850</v>
       </c>
       <c r="C21" s="0">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D21" s="0">
-        <v>32.185396375063682</v>
+        <v>32.502344643865541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="B22" s="0">
-        <v>870</v>
+        <v>850</v>
       </c>
       <c r="C22" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D22" s="0">
-        <v>33.676108360063537</v>
+        <v>34.011778606129702</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="B23" s="0">
-        <v>890</v>
+        <v>850</v>
       </c>
       <c r="C23" s="0">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D23" s="0">
-        <v>35.934878117326669</v>
+        <v>34.350761656977163</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>550</v>
+        <v>530</v>
       </c>
       <c r="B24" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C24" s="0">
-        <v>28</v>
+        <v>28.344032536130001</v>
       </c>
       <c r="D24" s="0">
-        <v>37.106092065537183</v>
+        <v>38.363065709999681</v>
       </c>
     </row>
     <row r="25">
@@ -423,27 +423,27 @@
         <v>510</v>
       </c>
       <c r="B25" s="0">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="C25" s="0">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" s="0">
-        <v>38.691901921543973</v>
+        <v>39.156785249354947</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>470</v>
+        <v>500</v>
       </c>
       <c r="B26" s="0">
         <v>900</v>
       </c>
       <c r="C26" s="0">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D26" s="0">
-        <v>40.4464149537217</v>
+        <v>39.564948514661083</v>
       </c>
     </row>
     <row r="27">
@@ -451,27 +451,27 @@
         <v>440</v>
       </c>
       <c r="B27" s="0">
-        <v>870</v>
+        <v>880</v>
       </c>
       <c r="C27" s="0">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="0">
-        <v>42.214181906688069</v>
+        <v>42.576641524345249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B28" s="0">
-        <v>810</v>
+        <v>870</v>
       </c>
       <c r="C28" s="0">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D28" s="0">
-        <v>44.4729516639512</v>
+        <v>43.234415274286221</v>
       </c>
     </row>
     <row r="29">
@@ -479,55 +479,55 @@
         <v>420</v>
       </c>
       <c r="B29" s="0">
-        <v>800</v>
+        <v>850</v>
       </c>
       <c r="C29" s="0">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29" s="0">
-        <v>44.790411981411523</v>
+        <v>44.185933562583998</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B30" s="0">
-        <v>730</v>
+        <v>820</v>
       </c>
       <c r="C30" s="0">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D30" s="0">
-        <v>47.035195413749761</v>
+        <v>45.357147510794519</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="B31" s="0">
-        <v>690</v>
+        <v>760</v>
       </c>
       <c r="C31" s="0">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D31" s="0">
-        <v>48.730110667987049</v>
+        <v>47.696671560909223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>470</v>
+        <v>450</v>
       </c>
       <c r="B32" s="0">
-        <v>630</v>
+        <v>680</v>
       </c>
       <c r="C32" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D32" s="0">
-        <v>50.942024315368222</v>
+        <v>50.803582013751956</v>
       </c>
     </row>
     <row r="33">
@@ -535,503 +535,629 @@
         <v>490</v>
       </c>
       <c r="B33" s="0">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="C33" s="0">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D33" s="0">
-        <v>52.598370965368069</v>
+        <v>53.246690422327283</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="B34" s="0">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="C34" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D34" s="0">
-        <v>54.262151626983467</v>
+        <v>55.839233004935728</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>540</v>
+        <v>550</v>
       </c>
       <c r="B35" s="0">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="C35" s="0">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D35" s="0">
-        <v>55.982203917367933</v>
+        <v>57.154567109347369</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B36" s="0">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="C36" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D36" s="0">
-        <v>58.224877723077647</v>
+        <v>57.493550160194829</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B37" s="0">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="C37" s="0">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D37" s="0">
-        <v>59.094442940468959</v>
+        <v>60.472273564450148</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="B38" s="0">
-        <v>440</v>
+        <v>360</v>
       </c>
       <c r="C38" s="0">
-        <v>28</v>
+        <v>16.515454772409619</v>
       </c>
       <c r="D38" s="0">
-        <v>61.134050745906073</v>
+        <v>63.885866323102761</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B39" s="0">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="C39" s="0">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="D39" s="0">
-        <v>63.415040362636873</v>
+        <v>64.46531689479238</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
+        <v>440</v>
+      </c>
+      <c r="B40" s="0">
         <v>400</v>
       </c>
-      <c r="B40" s="0">
-        <v>420</v>
-      </c>
       <c r="C40" s="0">
-        <v>32</v>
+        <v>19.662957233546141</v>
       </c>
       <c r="D40" s="0">
-        <v>64.960197790998322</v>
+        <v>68.294598013750871</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="B41" s="0">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="C41" s="0">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="0">
-        <v>66.86495969576022</v>
+        <v>71.75888034659269</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="B42" s="0">
-        <v>390</v>
+        <v>470</v>
       </c>
       <c r="C42" s="0">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D42" s="0">
-        <v>68.25598942924195</v>
+        <v>73.156422832530055</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>310</v>
+        <v>280</v>
       </c>
       <c r="B43" s="0">
-        <v>320</v>
+        <v>450</v>
       </c>
       <c r="C43" s="0">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D43" s="0">
-        <v>70.514053945370989</v>
+        <v>74.673370665525695</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>330</v>
+        <v>270</v>
       </c>
       <c r="B44" s="0">
-        <v>290</v>
+        <v>430</v>
       </c>
       <c r="C44" s="0">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D44" s="0">
-        <v>71.590337908196062</v>
+        <v>75.277713362147267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
+        <v>290</v>
+      </c>
+      <c r="B45" s="0">
         <v>380</v>
-      </c>
-      <c r="B45" s="0">
-        <v>230</v>
       </c>
       <c r="C45" s="0">
         <v>33</v>
       </c>
       <c r="D45" s="0">
-        <v>73.887470165815671</v>
+        <v>76.816331878471416</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="B46" s="0">
-        <v>200</v>
+        <v>330</v>
       </c>
       <c r="C46" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D46" s="0">
-        <v>75.425931704277204</v>
+        <v>78.333279711467057</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>450</v>
+        <v>330</v>
       </c>
       <c r="B47" s="0">
-        <v>190</v>
+        <v>290</v>
       </c>
       <c r="C47" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D47" s="0">
-        <v>76.414143473079818</v>
+        <v>79.510157594361687</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>490</v>
+        <v>410</v>
       </c>
       <c r="B48" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C48" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D48" s="0">
-        <v>77.704466053724985</v>
+        <v>83.408050865133561</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>530</v>
+        <v>420</v>
       </c>
       <c r="B49" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C49" s="0">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D49" s="0">
-        <v>79.083776398552573</v>
+        <v>83.702168512192387</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>570</v>
+        <v>550</v>
       </c>
       <c r="B50" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="C50" s="0">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D50" s="0">
-        <v>80.487285170482394</v>
+        <v>87.582765527117758</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>630</v>
+        <v>650</v>
       </c>
       <c r="B51" s="0">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C51" s="0">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D51" s="0">
-        <v>82.699198817863561</v>
+        <v>90.628182382002876</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>650</v>
+        <v>740</v>
       </c>
       <c r="B52" s="0">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C52" s="0">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D52" s="0">
-        <v>83.439939558604308</v>
+        <v>93.862248502766235</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="B53" s="0">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C53" s="0">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D53" s="0">
-        <v>85.364097865620451</v>
+        <v>97.4013354549393</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>710</v>
+        <v>850</v>
       </c>
       <c r="B54" s="0">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="C54" s="0">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D54" s="0">
-        <v>85.77226113092658</v>
+        <v>97.811252429540204</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>760</v>
+        <v>850</v>
       </c>
       <c r="B55" s="0">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="C55" s="0">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D55" s="0">
-        <v>87.811868936363695</v>
+        <v>98.092942570385276</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>780</v>
+        <v>880</v>
       </c>
       <c r="B56" s="0">
-        <v>190</v>
+        <v>320</v>
       </c>
       <c r="C56" s="0">
-        <v>25</v>
+        <v>27.981171360930471</v>
       </c>
       <c r="D56" s="0">
-        <v>88.688758339304783</v>
+        <v>100.7637294795899</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>820</v>
+        <v>900</v>
       </c>
       <c r="B57" s="0">
-        <v>210</v>
+        <v>430</v>
       </c>
       <c r="C57" s="0">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D57" s="0">
-        <v>90.47761272130461</v>
+        <v>104.5548850736631</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>840</v>
+        <v>900</v>
       </c>
       <c r="B58" s="0">
-        <v>220</v>
+        <v>440</v>
       </c>
       <c r="C58" s="0">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D58" s="0">
-        <v>91.337638866496832</v>
+        <v>104.8723453911234</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="B59" s="0">
-        <v>260</v>
+        <v>520</v>
       </c>
       <c r="C59" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D59" s="0">
-        <v>93.123353152211124</v>
+        <v>107.6053141193602</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="B60" s="0">
-        <v>260</v>
+        <v>330</v>
       </c>
       <c r="C60" s="0">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D60" s="0">
-        <v>93.462336203058584</v>
+        <v>105.86005375096001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>890</v>
+        <v>870</v>
       </c>
       <c r="B61" s="0">
-        <v>260</v>
+        <v>340</v>
       </c>
       <c r="C61" s="0">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="D61" s="0">
-        <v>93.839694693624622</v>
+        <v>106.1197940107002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>910</v>
+        <v>870</v>
       </c>
       <c r="B62" s="0">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C62" s="0">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="D62" s="0">
-        <v>95.872483764078979</v>
+        <v>106.3729585676622</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>930</v>
+        <v>870</v>
       </c>
       <c r="B63" s="0">
-        <v>350</v>
+        <v>370</v>
       </c>
       <c r="C63" s="0">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D63" s="0">
-        <v>98.11630243371836</v>
+        <v>106.8667857281561</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>930</v>
+        <v>870</v>
       </c>
       <c r="B64" s="0">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="C64" s="0">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="D64" s="0">
-        <v>100.3385246559406</v>
+        <v>107.35459060620479</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="B65" s="0">
-        <v>430</v>
+        <v>470</v>
       </c>
       <c r="C65" s="0">
-        <v>29</v>
+        <v>35.007195934917121</v>
       </c>
       <c r="D65" s="0">
-        <v>101.0528103702263</v>
+        <v>109.47603651645839</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0">
-        <v>920</v>
+        <v>900</v>
       </c>
       <c r="B66" s="0">
-        <v>480</v>
+        <v>520</v>
       </c>
       <c r="C66" s="0">
-        <v>32</v>
+        <v>30.901249262748841</v>
       </c>
       <c r="D66" s="0">
-        <v>102.7246200468141</v>
+        <v>111.1101715020384</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>900</v>
+        <v>880</v>
       </c>
       <c r="B67" s="0">
-        <v>510</v>
+        <v>400</v>
       </c>
       <c r="C67" s="0">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D67" s="0">
-        <v>103.8877011034154</v>
+        <v>123.3614339198603</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
+        <v>880</v>
+      </c>
+      <c r="B68" s="0">
+        <v>470</v>
+      </c>
+      <c r="C68" s="0">
+        <v>32</v>
+      </c>
+      <c r="D68" s="0">
+        <v>125.51528007370641</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="0">
+        <v>880</v>
+      </c>
+      <c r="B69" s="0">
+        <v>480</v>
+      </c>
+      <c r="C69" s="0">
+        <v>33</v>
+      </c>
+      <c r="D69" s="0">
+        <v>125.8229723813988</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="0">
         <v>900</v>
       </c>
-      <c r="B68" s="0">
+      <c r="B70" s="0">
+        <v>540</v>
+      </c>
+      <c r="C70" s="0">
+        <v>27</v>
+      </c>
+      <c r="D70" s="0">
+        <v>127.9311574881777</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="0">
+        <v>890</v>
+      </c>
+      <c r="B71" s="0">
+        <v>380</v>
+      </c>
+      <c r="C71" s="0">
+        <v>33</v>
+      </c>
+      <c r="D71" s="0">
+        <v>102.6877122480454</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="0">
+        <v>890</v>
+      </c>
+      <c r="B72" s="0">
+        <v>400</v>
+      </c>
+      <c r="C72" s="0">
+        <v>35</v>
+      </c>
+      <c r="D72" s="0">
+        <v>103.2759475421631</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="0">
+        <v>890</v>
+      </c>
+      <c r="B73" s="0">
+        <v>410</v>
+      </c>
+      <c r="C73" s="0">
+        <v>36</v>
+      </c>
+      <c r="D73" s="0">
+        <v>103.5576376830082</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="0">
+        <v>890</v>
+      </c>
+      <c r="B74" s="0">
+        <v>430</v>
+      </c>
+      <c r="C74" s="0">
+        <v>38</v>
+      </c>
+      <c r="D74" s="0">
+        <v>104.0981782235487</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="0">
+        <v>890</v>
+      </c>
+      <c r="B75" s="0">
+        <v>450</v>
+      </c>
+      <c r="C75" s="0">
+        <v>40</v>
+      </c>
+      <c r="D75" s="0">
+        <v>104.6109987363692</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="0">
+        <v>890</v>
+      </c>
+      <c r="B76" s="0">
+        <v>490</v>
+      </c>
+      <c r="C76" s="0">
+        <v>42</v>
+      </c>
+      <c r="D76" s="0">
+        <v>105.58660849246679</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="0">
+        <v>890</v>
+      </c>
+      <c r="B77" s="0">
         <v>520</v>
       </c>
-      <c r="C68" s="0">
-        <v>18</v>
-      </c>
-      <c r="D68" s="0">
-        <v>104.3043677700821</v>
+      <c r="C77" s="0">
+        <v>41</v>
+      </c>
+      <c r="D77" s="0">
+        <v>106.3095000587318</v>
       </c>
     </row>
   </sheetData>

--- a/foundPath/5000pathNodes.xlsx
+++ b/foundPath/5000pathNodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="44" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="68" uniqueCount="4">
   <si>
     <t>X</t>
   </si>
@@ -126,147 +126,147 @@
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>910</v>
+        <v>890</v>
       </c>
       <c r="B4" s="0">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="C4" s="0">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4" s="0">
-        <v>4.681724069827605</v>
+        <v>3.27485380116959</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B5" s="0">
         <v>670</v>
       </c>
       <c r="C5" s="0">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0">
-        <v>5.5388231985385721</v>
+        <v>4.7563352826510723</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B6" s="0">
         <v>680</v>
       </c>
       <c r="C6" s="0">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="0">
-        <v>6.0651389880122561</v>
+        <v>5.3445705767687191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B7" s="0">
-        <v>730</v>
+        <v>700</v>
       </c>
       <c r="C7" s="0">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D7" s="0">
-        <v>8.3378662607395295</v>
+        <v>6.3702116024097446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="B8" s="0">
-        <v>830</v>
+        <v>770</v>
       </c>
       <c r="C8" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" s="0">
-        <v>11.99236648660167</v>
+        <v>9.2868782690764107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="B9" s="0">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="C9" s="0">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="0">
-        <v>14.273356103332469</v>
+        <v>11.286878269076411</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>860</v>
+        <v>890</v>
       </c>
       <c r="B10" s="0">
-        <v>980</v>
+        <v>900</v>
       </c>
       <c r="C10" s="0">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D10" s="0">
-        <v>18.194924730783448</v>
+        <v>13.581960236289531</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>820</v>
+        <v>870</v>
       </c>
       <c r="B11" s="0">
-        <v>1040</v>
+        <v>1000</v>
       </c>
       <c r="C11" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D11" s="0">
-        <v>21.13823189442752</v>
+        <v>16.98130657868472</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>810</v>
+        <v>860</v>
       </c>
       <c r="B12" s="0">
-        <v>1040</v>
+        <v>1010</v>
       </c>
       <c r="C12" s="0">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D12" s="0">
-        <v>21.47721494527498</v>
+        <v>17.58309958394986</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>780</v>
+        <v>840</v>
       </c>
       <c r="B13" s="0">
         <v>1010</v>
       </c>
       <c r="C13" s="0">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="0">
-        <v>23.4505361950979</v>
+        <v>19.487861488711768</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>780</v>
+        <v>810</v>
       </c>
       <c r="B14" s="0">
         <v>1000</v>
@@ -275,301 +275,301 @@
         <v>15</v>
       </c>
       <c r="D14" s="0">
-        <v>24.164821909383619</v>
+        <v>22.499554498395941</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>780</v>
+        <v>800</v>
       </c>
       <c r="B15" s="0">
         <v>990</v>
       </c>
       <c r="C15" s="0">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D15" s="0">
-        <v>24.789821909383619</v>
+        <v>23.356653627106901</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>780</v>
+        <v>760</v>
       </c>
       <c r="B16" s="0">
-        <v>980</v>
+        <v>920</v>
       </c>
       <c r="C16" s="0">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D16" s="0">
-        <v>25.345377464939169</v>
+        <v>26.86198308288888</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>780</v>
+        <v>740</v>
       </c>
       <c r="B17" s="0">
-        <v>970</v>
+        <v>880</v>
       </c>
       <c r="C17" s="0">
-        <v>21</v>
+        <v>22.956651822718079</v>
       </c>
       <c r="D17" s="0">
-        <v>25.845377464939169</v>
+        <v>28.617253806153229</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>750</v>
+        <v>700</v>
       </c>
       <c r="B18" s="0">
-        <v>880</v>
+        <v>840</v>
       </c>
       <c r="C18" s="0">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D18" s="0">
-        <v>29.640110657141229</v>
+        <v>31.079075555620179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>740</v>
+        <v>680</v>
       </c>
       <c r="B19" s="0">
-        <v>870</v>
+        <v>830</v>
       </c>
       <c r="C19" s="0">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D19" s="0">
-        <v>30.173776152376359</v>
+        <v>31.991756362762949</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>700</v>
+        <v>670</v>
       </c>
       <c r="B20" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C20" s="0">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D20" s="0">
-        <v>32.076812728971923</v>
+        <v>32.426538971458598</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="B21" s="0">
-        <v>850</v>
+        <v>830</v>
       </c>
       <c r="C21" s="0">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="0">
-        <v>32.502344643865541</v>
+        <v>33.378919923839547</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>650</v>
+        <v>630</v>
       </c>
       <c r="B22" s="0">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="C22" s="0">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D22" s="0">
-        <v>34.011778606129702</v>
+        <v>34.443714198839452</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>640</v>
+        <v>560</v>
       </c>
       <c r="B23" s="0">
-        <v>850</v>
+        <v>870</v>
       </c>
       <c r="C23" s="0">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D23" s="0">
-        <v>34.350761656977163</v>
+        <v>37.552193017559418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>530</v>
+        <v>510</v>
       </c>
       <c r="B24" s="0">
         <v>890</v>
       </c>
       <c r="C24" s="0">
-        <v>28.344032536130001</v>
+        <v>28</v>
       </c>
       <c r="D24" s="0">
-        <v>38.363065709999681</v>
+        <v>39.441724528834683</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="B25" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C25" s="0">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0">
-        <v>39.156785249354947</v>
+        <v>39.82633991345007</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="B26" s="0">
-        <v>900</v>
+        <v>890</v>
       </c>
       <c r="C26" s="0">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="0">
-        <v>39.564948514661083</v>
+        <v>41.64452173163189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B27" s="0">
-        <v>880</v>
+        <v>870</v>
       </c>
       <c r="C27" s="0">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D27" s="0">
-        <v>42.576641524345249</v>
+        <v>45.03061935455306</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="B28" s="0">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="C28" s="0">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D28" s="0">
-        <v>43.234415274286221</v>
+        <v>45.737726135739607</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B29" s="0">
         <v>850</v>
       </c>
       <c r="C29" s="0">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="D29" s="0">
-        <v>44.185933562583998</v>
+        <v>46.607291353130911</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B30" s="0">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="C30" s="0">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D30" s="0">
-        <v>45.357147510794519</v>
+        <v>48.829513575353133</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="B31" s="0">
-        <v>760</v>
+        <v>820</v>
       </c>
       <c r="C31" s="0">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D31" s="0">
-        <v>47.696671560909223</v>
+        <v>49.598744344583899</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="B32" s="0">
-        <v>680</v>
+        <v>770</v>
       </c>
       <c r="C32" s="0">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D32" s="0">
-        <v>50.803582013751956</v>
+        <v>52.509644240332278</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="B33" s="0">
-        <v>610</v>
+        <v>670</v>
       </c>
       <c r="C33" s="0">
         <v>34</v>
       </c>
       <c r="D33" s="0">
-        <v>53.246690422327283</v>
+        <v>56.432570516647701</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B34" s="0">
-        <v>530</v>
+        <v>560</v>
       </c>
       <c r="C34" s="0">
         <v>35</v>
       </c>
       <c r="D34" s="0">
-        <v>55.839233004935728</v>
+        <v>60.211818287779671</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B35" s="0">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="C35" s="0">
         <v>33</v>
       </c>
       <c r="D35" s="0">
-        <v>57.154567109347369</v>
+        <v>63.379562291976441</v>
       </c>
     </row>
     <row r="36">
@@ -577,405 +577,405 @@
         <v>550</v>
       </c>
       <c r="B36" s="0">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="C36" s="0">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="D36" s="0">
-        <v>57.493550160194829</v>
+        <v>65.17221691181021</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B37" s="0">
         <v>410</v>
       </c>
       <c r="C37" s="0">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D37" s="0">
-        <v>60.472273564450148</v>
+        <v>66.147536609998554</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B38" s="0">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="C38" s="0">
-        <v>16.515454772409619</v>
+        <v>20</v>
       </c>
       <c r="D38" s="0">
-        <v>63.885866323102761</v>
+        <v>67.389796597498432</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="B39" s="0">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="C39" s="0">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D39" s="0">
-        <v>64.46531689479238</v>
+        <v>70.603918330164561</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>440</v>
+        <v>390</v>
       </c>
       <c r="B40" s="0">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="C40" s="0">
-        <v>19.662957233546141</v>
+        <v>31</v>
       </c>
       <c r="D40" s="0">
-        <v>68.294598013750871</v>
+        <v>72.785736511982748</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>370</v>
+        <v>340</v>
       </c>
       <c r="B41" s="0">
-        <v>450</v>
+        <v>390</v>
       </c>
       <c r="C41" s="0">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D41" s="0">
-        <v>71.75888034659269</v>
+        <v>74.278273825415582</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="B42" s="0">
-        <v>470</v>
+        <v>380</v>
       </c>
       <c r="C42" s="0">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="D42" s="0">
-        <v>73.156422832530055</v>
+        <v>75.076869531665508</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B43" s="0">
-        <v>450</v>
+        <v>370</v>
       </c>
       <c r="C43" s="0">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D43" s="0">
-        <v>74.673370665525695</v>
+        <v>76.116901149107278</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B44" s="0">
-        <v>430</v>
+        <v>360</v>
       </c>
       <c r="C44" s="0">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D44" s="0">
-        <v>75.277713362147267</v>
+        <v>76.706156800096068</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="B45" s="0">
-        <v>380</v>
+        <v>310</v>
       </c>
       <c r="C45" s="0">
-        <v>33</v>
+        <v>22.956651822718079</v>
       </c>
       <c r="D45" s="0">
-        <v>76.816331878471416</v>
+        <v>78.952003664903017</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="B46" s="0">
-        <v>330</v>
+        <v>230</v>
       </c>
       <c r="C46" s="0">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D46" s="0">
-        <v>78.333279711467057</v>
+        <v>82.765463344099004</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>330</v>
+        <v>300</v>
       </c>
       <c r="B47" s="0">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="C47" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="D47" s="0">
-        <v>79.510157594361687</v>
+        <v>86.652764607329203</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>410</v>
+        <v>310</v>
       </c>
       <c r="B48" s="0">
         <v>170</v>
       </c>
       <c r="C48" s="0">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="D48" s="0">
-        <v>83.408050865133561</v>
+        <v>87.784135457227677</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>420</v>
+        <v>340</v>
       </c>
       <c r="B49" s="0">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C49" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D49" s="0">
-        <v>83.702168512192387</v>
+        <v>90.042905214490801</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>550</v>
+        <v>360</v>
       </c>
       <c r="B50" s="0">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C50" s="0">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D50" s="0">
-        <v>87.582765527117758</v>
+        <v>91.292905214490801</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>650</v>
+        <v>390</v>
       </c>
       <c r="B51" s="0">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C51" s="0">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D51" s="0">
-        <v>90.628182382002876</v>
+        <v>92.835479682865625</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>740</v>
+        <v>410</v>
       </c>
       <c r="B52" s="0">
-        <v>190</v>
+        <v>150</v>
       </c>
       <c r="C52" s="0">
         <v>25</v>
       </c>
       <c r="D52" s="0">
-        <v>93.862248502766235</v>
+        <v>93.668813016198953</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>840</v>
+        <v>520</v>
       </c>
       <c r="B53" s="0">
-        <v>220</v>
+        <v>160</v>
       </c>
       <c r="C53" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D53" s="0">
-        <v>97.4013354549393</v>
+        <v>97.613584808051542</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0">
-        <v>850</v>
+        <v>550</v>
       </c>
       <c r="B54" s="0">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="C54" s="0">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D54" s="0">
-        <v>97.811252429540204</v>
+        <v>98.536661731128461</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0">
-        <v>850</v>
+        <v>600</v>
       </c>
       <c r="B55" s="0">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C55" s="0">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D55" s="0">
-        <v>98.092942570385276</v>
+        <v>99.925550620017347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0">
-        <v>880</v>
+        <v>710</v>
       </c>
       <c r="B56" s="0">
-        <v>320</v>
+        <v>180</v>
       </c>
       <c r="C56" s="0">
-        <v>27.981171360930471</v>
+        <v>32</v>
       </c>
       <c r="D56" s="0">
-        <v>100.7637294795899</v>
+        <v>103.119933445017</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0">
-        <v>900</v>
+        <v>820</v>
       </c>
       <c r="B57" s="0">
-        <v>430</v>
+        <v>200</v>
       </c>
       <c r="C57" s="0">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D57" s="0">
-        <v>104.5548850736631</v>
+        <v>106.909879169593</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0">
-        <v>900</v>
+        <v>830</v>
       </c>
       <c r="B58" s="0">
-        <v>440</v>
+        <v>210</v>
       </c>
       <c r="C58" s="0">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D58" s="0">
-        <v>104.8723453911234</v>
+        <v>107.59973944392129</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0">
-        <v>890</v>
+        <v>860</v>
       </c>
       <c r="B59" s="0">
-        <v>520</v>
+        <v>260</v>
       </c>
       <c r="C59" s="0">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D59" s="0">
-        <v>107.6053141193602</v>
+        <v>110.7516053330269</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0">
-        <v>870</v>
+        <v>890</v>
       </c>
       <c r="B60" s="0">
-        <v>330</v>
+        <v>310</v>
       </c>
       <c r="C60" s="0">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D60" s="0">
-        <v>105.86005375096001</v>
+        <v>112.9942791387366</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B61" s="0">
-        <v>340</v>
+        <v>370</v>
       </c>
       <c r="C61" s="0">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D61" s="0">
-        <v>106.1197940107002</v>
+        <v>115.28966122564159</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B62" s="0">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="C62" s="0">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="D62" s="0">
-        <v>106.3729585676622</v>
+        <v>115.6978244909477</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B63" s="0">
-        <v>370</v>
+        <v>450</v>
       </c>
       <c r="C63" s="0">
-        <v>41</v>
+        <v>32.203385853539821</v>
       </c>
       <c r="D63" s="0">
-        <v>106.8667857281561</v>
+        <v>118.145232068507</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>870</v>
+        <v>900</v>
       </c>
       <c r="B64" s="0">
-        <v>390</v>
+        <v>520</v>
       </c>
       <c r="C64" s="0">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="D64" s="0">
-        <v>107.35459060620479</v>
+        <v>120.5926396460662</v>
       </c>
     </row>
     <row r="65">
@@ -1011,13 +1011,13 @@
         <v>880</v>
       </c>
       <c r="B67" s="0">
-        <v>400</v>
+        <v>520</v>
       </c>
       <c r="C67" s="0">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D67" s="0">
-        <v>123.3614339198603</v>
+        <v>122.3081355436605</v>
       </c>
     </row>
     <row r="68">
